--- a/query.xlsx
+++ b/query.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Vikram/TalkingTally/R&amp;D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12830A5-E666-3A40-9E45-F7B954129738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA70C93-4E10-344F-B2D1-1E5E842E5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{A2AC9713-0057-BA46-AEE0-8187C960DB47}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" activeTab="1" xr2:uid="{A2AC9713-0057-BA46-AEE0-8187C960DB47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
   <si>
     <t>Show me the balance of ledger account Caleb Bhasin (Vendor)</t>
   </si>
@@ -339,13 +340,5029 @@
   </si>
   <si>
     <t>Show the opening balance for ledger account Courier Charges</t>
+  </si>
+  <si>
+    <r>
+      <t>How much did we sell to Aero Mfg last quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What’s the monthly sale trend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Areo Manufac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to Abhinav Sys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> July</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did we cross </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lakhs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sales </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Accord Soft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show sales summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Power One </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Q1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare sales of ITW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> India last year.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which items did we sell most to Accrd Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much GST collected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ltd sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Give me invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise sale to EMSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> April.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did we sell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> customer last week</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show total revenue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMS Dvn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What are the top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> customers by sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate sales breakdown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> item group Cable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which cities did we ship Scotchcast to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is there a dip </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sales to IAT Division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise sales </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sirshila.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sales by cost centre Administ.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Infra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this FY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How much did we bill Arvind Asso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Show total number of sales invoices raised.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What were our purchases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elect last month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much did we spend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aereo Mfg this quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purchase trend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ABHINAV over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise purchase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMS Divn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which vendors did we buy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate purchase report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Power1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which stock categories had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> purchases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purchase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Accord Soft last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much did we spend on item </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vendors by purchase value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total units bought of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which vendor supplied the most items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Monthly purchase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Infra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did we buy anything </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bharath R this month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show purchase ledger </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pvt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise purchase detail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IATD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>What was the largest purchase invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vendor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise purchase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost centre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise purchase breakup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purchases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Direct Exp group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What do we owe to Aero Mfg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Show pending bills to Anuradha.</t>
+  </si>
+  <si>
+    <r>
+      <t>How much are we to pay to Accord Soft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Payables aging report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elect Comm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who are our top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> creditors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Total amount due to EMS Div.</t>
+  </si>
+  <si>
+    <r>
+      <t>Which vendor has overdue invoices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> due to Abhinav Sys this month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> payables due </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Admin Cost Centre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Outstanding to Arvind Assoc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> March</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vendor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise payable summary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payables grouped by Ledger Grp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are we carrying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> payables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Infra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Longest unpaid bill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ITW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Show bills payable by cost centre Sirshila.</t>
+  </si>
+  <si>
+    <r>
+      <t>Total due to Current Liab group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Next </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>day payables forecast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much TDS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pending to be paid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Give me unpaid GRNs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> POs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which vendor has credit days exceeding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> receivable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aero Ltd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Outstanding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Accord Globl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Receivables grouped by ledger grp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debtors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> balances over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lakh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> payment pending </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Abhi Systch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show aging of receivables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Power One.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What are we expecting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Anisha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which customers are overdue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales ledger outstanding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> India Ltd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise receivables snapshot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>What’s the oldest unpaid invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Receivables due </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Direct Incomes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount due </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMSD region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Invoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise pending </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bharath R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise receivable balances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which cost centre has most receivables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Receivables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sundry Debtors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who paid partially but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Are there bounced cheques pending</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Receivables pending </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ELCTRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What’s the current stock of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock level of Scotchcast Resin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How many </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Coolant left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise closing stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> July</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> items by stock value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock items below reorder level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did we receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> last week</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What’s the average cost of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stock movement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cable items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Show item group wise stock position.</t>
+  </si>
+  <si>
+    <r>
+      <t>Inventory balance by stock category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">moving stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> last year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stock ageing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ITW items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Show Godown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise stock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Powerone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">wise quantity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consumption report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IAT items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stock valuation by cost centre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which items were received </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> April</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Any negative stock items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What’s the valuation of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> stock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GST paid on purchases </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Areo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HSN summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Scotchcast items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tax liability </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> July</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GST </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMS Vendors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show output tax collected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ITW group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tax ledgers used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vouchers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IGST amount on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elect purchase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valuation method used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stock value by FIFO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What was total COGS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> July</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GST reconciliation summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GST payable to govt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any difference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GST </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vs books</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tax mismatch report by cost centre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tax paid grouped by item category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TDS entries </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Arvind Assoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deferred tax entries </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GST rate used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IATD sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monthly tax payment schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How much cash inflow did we have last month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cash outflow to Abhinav Pvt Ltd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Net cash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operating activities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cash vs Bank ledger </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> July</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did Sirshila receive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> advance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Daily cash balance trend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which cost centre spent the most cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Petty cash voucher details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cash movement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Admin division</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total cash receipts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Elect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cash ledger entries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reconcile cash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bank statement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Withdrawals </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Axis account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cash balance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>31st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare cash flow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> April vs May</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inflows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> EMSD region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who was paid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total UPI receipts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NEFT vs Cash ratio last quarter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Show liquidity summary.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sales by cost centre Sales </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Blg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Expenses under Indirect Exp group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show balance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>3M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ledger group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ledgers under Loans Liability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost centre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise ledger summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Income </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Direct Incomes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show ledger trail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bharath Rao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ledger hierarchy of EMS Div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>wise P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>L contribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Movement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Branch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Division ledgers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which ledgers were added recently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Any ledgers without entries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Balance sheet group breakup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ledgers by transaction count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How many groups under Current Assets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cash flow by group category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost centre hierarchy report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which cost category has highest spend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How many ledgers belong to Anuradha group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assign a ledger to Fixed Asset group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +5374,48 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF44747"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -380,9 +5439,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +5759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFC2F45-E3DC-164D-A9CB-A9731F2B7871}">
   <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1293,4 +6353,1463 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCEFCE3-742C-0645-918C-6563F9DBBC61}">
+  <dimension ref="A1:B160"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B160"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("'",A1,"',")</f>
+        <v>'How much did we sell to Aero Mfg last quarter?',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("'",A2,"',")</f>
+        <v>'What’s the monthly sale trend for Areo Manufac?',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'to Abhinav Sys in July?',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Did we cross 10 lakhs in sales for Accord Soft?',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show sales summary for Power One in Q1.',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Compare sales of ITW and 3M India last year.',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which items did we sell most to Accrd Global?',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much GST collected from 3M Ltd sales?',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Give me invoice-wise sale to EMSD in April.',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Did we sell 0603-F/B to any customer last week?',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show total revenue from EMS Dvn.',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'What are the top 5 customers by sales?',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Generate sales breakdown for item group Cable.',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which cities did we ship Scotchcast to?',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Is there a dip in sales to IAT Division?',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show product-wise sales for Sirshila.',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Sales by cost centre Administ.',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'Sales to 3S Infra in this FY?',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much did we bill Arvind Asso?',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show total number of sales invoices raised.',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'What were our purchases from 3M Elect last month?',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much did we spend with Aereo Mfg this quarter?',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'Purchase trend for ABHINAV over 6 months?',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'Item-wise purchase from EMS Divn?',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which vendors did we buy 1170 (31mm) from?',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Generate purchase report for Power1.',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which stock categories had max purchases?',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'Purchase from Accord Soft last 3 months?',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much did we spend on item 3M 1099?',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Top 5 vendors by purchase value?',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Total units bought of 120/9 3M GEL?',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which vendor supplied the most items?',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'Monthly purchase from 3S Infra?',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'Did we buy anything from Bharath R this month?',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show purchase ledger for 3M Pvt.',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'PO-wise purchase detail for IATD?',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>'What was the largest purchase invoice?',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>'Vendor-wise purchase for Aug?',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cost centre-wise purchase breakup?',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>'Purchases from Direct Exp group?',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>'What do we owe to Aero Mfg as of today?',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show pending bills to Anuradha.',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much are we to pay to Accord Soft?',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>'Payables aging report for 3M Elect Comm?',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>'Who are our top 5 creditors?',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>'Total amount due to EMS Div.',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which vendor has overdue invoices?',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much is due to Abhinav Sys this month?',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>'Are there any payables due from Admin Cost Centre?',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>'Outstanding to Arvind Assoc as on 31st March?',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>'Vendor-wise payable summary.',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>'Payables grouped by Ledger Grp?',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Are we carrying any payables for 3S Infra?',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>'Longest unpaid bill for ITW?',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>'Show bills payable by cost centre Sirshila.',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>'Total due to Current Liab group?',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>'Next 7-day payables forecast.',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much TDS is pending to be paid?',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>'Give me unpaid GRNs or POs.',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>'Which vendor has credit days exceeding 90?',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>'How much is receivable from Aero Ltd?',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>'Outstanding from Accord Globl?',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>'Receivables grouped by ledger grp?',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>'Debtors with balances over 1 lakh?',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>'Is any payment pending from Abhi Systch?',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("'",A66,"',")</f>
+        <v>'Show aging of receivables for Power One.',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>'What are we expecting from Anisha?',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>'Which customers are overdue?',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sales ledger outstanding for 3M India Ltd?',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>'Customer-wise receivables snapshot.',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s the oldest unpaid invoice?',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>'Receivables due from Direct Incomes?',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>'Amount due from EMSD region?',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>'Invoice-wise pending for Bharath R?',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>'Group-wise receivable balances?',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>'Which cost centre has most receivables?',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>'Receivables from Sundry Debtors?',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>'Who paid partially but not fully?',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>'Are there bounced cheques pending?',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>'Receivables pending from 3M ELCTRO?',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s the current stock of 3M 1170?',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock level of Scotchcast Resin?',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>'How many 3040 Coolant left in inventory?',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>'Item-wise closing stock for July?',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>'Top 5 items by stock value?',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock items below reorder level?',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>'Did we receive 0603-F/B in last week?',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s the average cost of 3M GEL?',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>'Value of 1170 (31mm) in stock?',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock movement for Cable items?',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>'Show item group wise stock position.',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>'Inventory balance by stock category?',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>'Slow-moving stock from last year?',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock ageing for ITW items?',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>'Show Godown-wise stock for Powerone?',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>'Batch-wise quantity for 3M 1099?',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>'Consumption report for IAT items?',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock valuation by cost centre?',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>'Which items were received in April?',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>'Any negative stock items?',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>'What’s the valuation of 3M stock?',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST paid on purchases from Areo?',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>'HSN summary for Scotchcast items?',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tax liability for July?',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST input from EMS Vendors?',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>'Show output tax collected from ITW group?',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tax ledgers used in last 10 vouchers?',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>'IGST amount on 3M Elect purchase?',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>'Valuation method used for 1170 item?',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>'Stock value by FIFO for 3M 1099?',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>'What was total COGS for July?',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST reconciliation summary?',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST payable to govt for Aug?',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>'Any difference in GST return vs books?',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tax mismatch report by cost centre?',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tax paid grouped by item category?',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>'TDS entries for Arvind Assoc?',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>'Deferred tax entries if any?',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>'GST rate used for IATD sales?',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>'Monthly tax payment schedule?',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>'How much cash inflow did we have last month?',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cash outflow to Abhinav Pvt Ltd?',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>'Net cash from operating activities?',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cash vs Bank ledger for July?',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>'Did Sirshila receive any advance?',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>'Daily cash balance trend?',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>'Which cost centre spent the most cash?',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>'Petty cash voucher details?',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cash movement for Admin division?',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B160" si="2">_xlfn.CONCAT("'",A130,"',")</f>
+        <v>'Total cash receipts from 3M Elect?',</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>'Show all cash ledger entries.',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>'Reconcile cash with bank statement.',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>'Withdrawals from Axis account?',</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cash balance as on 31st Mar?',</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>'Compare cash flow from April vs May?',</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>'Inflows from EMSD region?',</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>'Who was paid in cash?',</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>'Total UPI receipts?',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>'NEFT vs Cash ratio last quarter?',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>'Show liquidity summary.',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>'Sales by cost centre Sales - Blg?',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>'Expenses under Indirect Exp group?',</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>'Show balance of 3M ledger group?',</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>'Ledgers under Loans Liability?',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cost centre-wise ledger summary?',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>'Income from Direct Incomes?',</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>'Show ledger trail for Bharath Rao?',</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>'Ledger hierarchy of EMS Div?',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>'Group-wise P&amp;L contribution?',</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>'Movement in Branch / Division ledgers?',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>'Which ledgers were added recently?',</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>'Any ledgers without entries?',</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>'Balance sheet group breakup?',</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>'Top 5 ledgers by transaction count?',</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>'How many groups under Current Assets?',</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cash flow by group category?',</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cost centre hierarchy report?',</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>'Which cost category has highest spend?',</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>'How many ledgers belong to Anuradha group?',</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>'Assign a ledger to Fixed Asset group?',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>